--- a/PDFEXCELDATA.xlsx
+++ b/PDFEXCELDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshmi Sravanthi\Desktop\NovemberPractices\ExcelFileRoboticEnterpriseFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5873F2-7247-4240-9AC7-048E8FBC2702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C55FBF-6207-49DA-A52A-9CB0138D3786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="2436" yWindow="2436" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>23300</v>
+        <v>35100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,7 +501,9 @@
       <c r="D3" s="2">
         <v>300</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>23300</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -543,7 +545,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
